--- a/Section4_RealData/DataDictionary.xlsx
+++ b/Section4_RealData/DataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Projects\InProgress\LME_DifferenceWaves&amp;LatencyERP\Data\FinalScriptsForGitHub\DiffWave\RealData_FinalScriptsForGitHub\InputFiles\ExampleFilesForGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928822BF-31A6-4AA2-9E0E-4394A71B4CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EF5C4C-6FBC-42DD-B4B9-3821D0DD28A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{80C00692-9971-491C-BFCD-93A22C7EF537}"/>
   </bookViews>
@@ -77,13 +77,13 @@
     <t>Stimulus actor ID (i.e., 1, 2, …)</t>
   </si>
   <si>
-    <t>Negative central mean amplitude value (in units of microvolts)</t>
-  </si>
-  <si>
     <t>Emotion condition (i.e., Reduced-Intensity Angry=ReduAngry, Full-Intensity Angry=FullAngry)</t>
   </si>
   <si>
     <t>Presentation number of specific emotion condition/stimulus (i.e., 1, 2, …)</t>
+  </si>
+  <si>
+    <t>Negative Central mean amplitude value (in units of microvolts)</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
